--- a/src/test/resources/Incident.xlsx
+++ b/src/test/resources/Incident.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C3C3403-ED9D-488C-BD50-3705526812D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonline-my.sharepoint.com/personal/sandesh_velhal_insight_com/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{5384C258-E5EE-4E7C-B8B7-262FA9A1C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96987221-FB75-4662-A36C-2273E7DD7BEE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47AEF9C5-A68B-4616-944B-F17818BC6EA4}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{47AEF9C5-A68B-4616-944B-F17818BC6EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Inc" sheetId="1" r:id="rId1"/>
+    <sheet name="ImpersonateUser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>User</t>
   </si>
@@ -109,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,17 +403,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1455EC35-D54A-4DB2-8548-09D9706D20DE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -433,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -441,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -452,4 +448,236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4232BF5-167B-438D-AD11-4378C7AE8B69}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010073343488A879F648A8233DD2750A8BE0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aecf8f046f0335461bceda7cb2834bf5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7183a3b8e113dde5e82283a519c12d21" ns3:_="">
+    <xsd:import namespace="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D8316B-DDF9-4C31-BB62-1D72B0CB79F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAD2946-464E-4E64-9A2E-8B630789DBB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA51041-64D4-4374-9F9B-AFEDFCEF6388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6c637512-c417-4e78-9d62-b61258e4b619}" enabled="0" method="" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/src/test/resources/Incident.xlsx
+++ b/src/test/resources/Incident.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonline-my.sharepoint.com/personal/sandesh_velhal_insight_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh Velhal\eclipse-workspace\Servicenow-AllModule\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5384C258-E5EE-4E7C-B8B7-262FA9A1C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96987221-FB75-4662-A36C-2273E7DD7BEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114DB09-EB68-4928-963F-1D80ED564B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{47AEF9C5-A68B-4616-944B-F17818BC6EA4}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{47AEF9C5-A68B-4616-944B-F17818BC6EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Inc" sheetId="1" r:id="rId1"/>
     <sheet name="ImpersonateUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal_Change" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>User</t>
   </si>
@@ -50,19 +52,146 @@
   </si>
   <si>
     <t xml:space="preserve">Incident for Fred Luddy </t>
+  </si>
+  <si>
+    <t>Origin task</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Assignement Group</t>
+  </si>
+  <si>
+    <t>Assigne to</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Creation of Normal Change record</t>
+  </si>
+  <si>
+    <t>CAB Approval</t>
+  </si>
+  <si>
+    <t>Bernard Laboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement are not clear so we Rejecting the Approve </t>
+  </si>
+  <si>
+    <t>Field Names</t>
+  </si>
+  <si>
+    <t>Field Values</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>add value</t>
+  </si>
+  <si>
+    <t>Assignment group</t>
+  </si>
+  <si>
+    <t>Problem Analyzers</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Problem Manager</t>
+  </si>
+  <si>
+    <t>Problem statement</t>
+  </si>
+  <si>
+    <t>Test Problem statement</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Assess</t>
+  </si>
+  <si>
+    <t>Root Cause Analysis</t>
+  </si>
+  <si>
+    <t>Fix in Progress</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Resolution code</t>
+  </si>
+  <si>
+    <t>Fix Applied</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>UI Action</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Resolve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +210,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4232BF5-167B-438D-AD11-4378C7AE8B69}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -468,6 +621,250 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DB1441-C323-479D-A628-08A5A45D8D8F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="55.7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="42.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="42.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B06AD26-2352-489D-A95B-22398751004B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -620,18 +1017,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,22 +1050,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAD2946-464E-4E64-9A2E-8B630789DBB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA51041-64D4-4374-9F9B-AFEDFCEF6388}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -676,8 +1057,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AAD2946-464E-4E64-9A2E-8B630789DBB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e67f5e3-5d1b-4bca-95ff-bb1bae13fe95"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{6c637512-c417-4e78-9d62-b61258e4b619}" enabled="0" method="" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" removed="1"/>
+  <clbl:label id="{d4def53c-905d-442a-ba22-72ae0f5bcf4f}" enabled="1" method="Standard" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" removed="0"/>
 </clbl:labelList>
 </file>